--- a/tables/table1_summary.xlsx
+++ b/tables/table1_summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gogartenlab/Desktop/transcriptomes/exp_mating/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57105FC0-2C15-4042-9C6F-3E3A9DE2CE70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D5E50-0075-6846-921F-A61989458B1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{87C8C513-BE6E-9F48-AAD2-0A9B4C972916}"/>
+    <workbookView xWindow="18420" yWindow="5020" windowWidth="27640" windowHeight="16940" xr2:uid="{87C8C513-BE6E-9F48-AAD2-0A9B4C972916}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -154,6 +154,24 @@
       </rPr>
       <t>c</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>No. D.E. genes</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <r>
@@ -252,8 +270,43 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> DS2 genome (NCBI assembly: ASM2568v1); average across two replicates</t>
-    </r>
+      <t xml:space="preserve"> DS2 genome (NCBI assembly: ASM2568v1); average across two replicates
+</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total number of differentially expressed genes for each time point compared to shaking control and genes with p-value &lt; 0.01 in parenthesis</t>
+    </r>
+  </si>
+  <si>
+    <t>3,320 (109)</t>
+  </si>
+  <si>
+    <t>3,434 (941)</t>
+  </si>
+  <si>
+    <t>3,480 (1092)</t>
+  </si>
+  <si>
+    <t>3,472 (757)</t>
+  </si>
+  <si>
+    <t>3,462 (643)</t>
   </si>
 </sst>
 </file>
@@ -304,27 +357,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -336,28 +374,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AB5235-4E87-8D4B-9DE1-4858CD40F06A}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,259 +764,294 @@
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>3169158</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>2918605</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="13">
         <f>D3/C3</f>
         <v>0.92094019925797321</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="13">
         <v>0.91500000000000004</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="10">
         <v>3256394</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>2805158</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E8" si="0">D4/C4</f>
         <v>0.86143077281188951</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="11">
         <v>0.91605000000000003</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="10">
         <v>3036028</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
         <v>2789144</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>0.918681909389505</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="11">
         <v>0.94169999999999998</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>3155477</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="10">
         <v>2900100</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>0.91906865427952733</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="11">
         <v>0.93494999999999995</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>3054785</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>2756910</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>0.90248904587393219</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="11">
         <v>0.94079999999999997</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="16">
         <v>3136767</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="16">
         <v>2873436</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0.9160501879801719</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="17">
         <v>0.93264999999999998</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
